--- a/biology/Médecine/Ejnar_Sylvest/Ejnar_Sylvest.xlsx
+++ b/biology/Médecine/Ejnar_Sylvest/Ejnar_Sylvest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ejnar Oluf Sørensen Sylvest, né le 11 novembre 1880 et mort le 28 juin 1972, est un médecin danois à qui l'on doit la description de la maladie de Bornholm qu'il surnomma « étreinte du diable », lors d'une épidémie de virus Coxsackie B observée en 1930 chez 23 pêcheurs de Melstedgård et de Gudhjem, au cours de vacances qu'il passait sur l'île de Bornholm, au Danemark [1],[2],[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ejnar Oluf Sørensen Sylvest, né le 11 novembre 1880 et mort le 28 juin 1972, est un médecin danois à qui l'on doit la description de la maladie de Bornholm qu'il surnomma « étreinte du diable », lors d'une épidémie de virus Coxsackie B observée en 1930 chez 23 pêcheurs de Melstedgård et de Gudhjem, au cours de vacances qu'il passait sur l'île de Bornholm, au Danemark .
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ejaner Sylvest est né en 1880 à Hillerød au Danemark. Il sort diplômé en médecine de l'Université de Copenhague en 1907, avant de rejoindre l'armée en tant que chirurgien en 1911, dans laquelle il restera jusqu'en 1913[1].
-À partir de 1926, il exerce en tant que médecin généraliste. Il publie en 1930 son ouvrage le plus populaire : sa monographie sur l'épidémie de myosite sur l'île de Bornholm[1].
-En 1939, il est nommé président de la Medical Society of Copenhagen[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ejaner Sylvest est né en 1880 à Hillerød au Danemark. Il sort diplômé en médecine de l'Université de Copenhague en 1907, avant de rejoindre l'armée en tant que chirurgien en 1911, dans laquelle il restera jusqu'en 1913.
+À partir de 1926, il exerce en tant que médecin généraliste. Il publie en 1930 son ouvrage le plus populaire : sa monographie sur l'épidémie de myosite sur l'île de Bornholm.
+En 1939, il est nommé président de la Medical Society of Copenhagen.
 </t>
         </is>
       </c>
